--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2931,6 +2931,23 @@
         <v>-0.4281444542486912</v>
       </c>
     </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B150">
+        <v>2025</v>
+      </c>
+      <c r="C150">
+        <v>0.2194017515915414</v>
+      </c>
+      <c r="D150">
+        <v>2026</v>
+      </c>
+      <c r="E150">
+        <v>-0.1883185981439661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_full.xlsx
@@ -423,13 +423,13 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.309964607477767</v>
+        <v>3.123541145015474</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>3.292079387398705</v>
+        <v>3.275761698145385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.688401115664597</v>
+        <v>3.800454286544896</v>
       </c>
       <c r="D3">
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>2.820536317219546</v>
+        <v>2.820536317219569</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1989</v>
       </c>
       <c r="C4">
-        <v>4.070810498787703</v>
+        <v>4.077281088115026</v>
       </c>
       <c r="D4">
         <v>1990</v>
       </c>
       <c r="E4">
-        <v>2.938039590662322</v>
+        <v>3.013456857613561</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1989</v>
       </c>
       <c r="C5">
-        <v>3.781674546952152</v>
+        <v>3.898703509563073</v>
       </c>
       <c r="D5">
         <v>1990</v>
       </c>
       <c r="E5">
-        <v>2.637960524935878</v>
+        <v>2.662530715475619</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1989</v>
       </c>
       <c r="C6">
-        <v>3.990753256129032</v>
+        <v>3.959010658874851</v>
       </c>
       <c r="D6">
         <v>1990</v>
       </c>
       <c r="E6">
-        <v>3.894766455402432</v>
+        <v>3.716811705074696</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1990</v>
       </c>
       <c r="C7">
-        <v>3.742536912947325</v>
+        <v>3.717839338447271</v>
       </c>
       <c r="D7">
         <v>1991</v>
       </c>
       <c r="E7">
-        <v>3.660589387824165</v>
+        <v>3.660589387824187</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1990</v>
       </c>
       <c r="C8">
-        <v>5.160693331242894</v>
+        <v>4.731933890736406</v>
       </c>
       <c r="D8">
         <v>1991</v>
       </c>
       <c r="E8">
-        <v>4.221727333422343</v>
+        <v>4.482374336309247</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1990</v>
       </c>
       <c r="C9">
-        <v>4.640054868618004</v>
+        <v>4.412404303366846</v>
       </c>
       <c r="D9">
         <v>1991</v>
       </c>
       <c r="E9">
-        <v>3.657742353816062</v>
+        <v>3.831431139798713</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1990</v>
       </c>
       <c r="C10">
-        <v>5.337917583757479</v>
+        <v>4.722695063536686</v>
       </c>
       <c r="D10">
         <v>1991</v>
       </c>
       <c r="E10">
-        <v>5.271624700114952</v>
+        <v>5.522497812297966</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +576,7 @@
         <v>1991</v>
       </c>
       <c r="C11">
-        <v>5.679219151637538</v>
+        <v>6.080932433195496</v>
       </c>
       <c r="D11">
         <v>1992</v>
@@ -593,13 +593,13 @@
         <v>1991</v>
       </c>
       <c r="C12">
-        <v>7.546366987894282</v>
+        <v>7.427427238257622</v>
       </c>
       <c r="D12">
         <v>1992</v>
       </c>
       <c r="E12">
-        <v>5.683452322749094</v>
+        <v>6.028771162940338</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>1991</v>
       </c>
       <c r="C13">
-        <v>7.316771621099827</v>
+        <v>7.275326989185826</v>
       </c>
       <c r="D13">
         <v>1992</v>
       </c>
       <c r="E13">
-        <v>5.578536257870481</v>
+        <v>5.856276645893543</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>1991</v>
       </c>
       <c r="C14">
-        <v>6.210850358288234</v>
+        <v>6.739021039846627</v>
       </c>
       <c r="D14">
         <v>1992</v>
       </c>
       <c r="E14">
-        <v>4.003658823348033</v>
+        <v>3.88772167754905</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>1992</v>
       </c>
       <c r="C15">
-        <v>3.851757724391391</v>
+        <v>3.598520557469653</v>
       </c>
       <c r="D15">
         <v>1993</v>
       </c>
       <c r="E15">
-        <v>5.161383041660117</v>
+        <v>5.161383041660095</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>1992</v>
       </c>
       <c r="C16">
-        <v>4.006245321455038</v>
+        <v>3.697244903694119</v>
       </c>
       <c r="D16">
         <v>1993</v>
       </c>
       <c r="E16">
-        <v>5.347702329862036</v>
+        <v>5.35733476656457</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>1992</v>
       </c>
       <c r="C17">
-        <v>2.864756996166529</v>
+        <v>2.96491453127774</v>
       </c>
       <c r="D17">
         <v>1993</v>
       </c>
       <c r="E17">
-        <v>4.527061539413357</v>
+        <v>4.24972598573008</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>1992</v>
       </c>
       <c r="C18">
-        <v>2.120896741860445</v>
+        <v>2.619839412265601</v>
       </c>
       <c r="D18">
         <v>1993</v>
       </c>
       <c r="E18">
-        <v>3.093518793608729</v>
+        <v>2.645362710332533</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +712,7 @@
         <v>1993</v>
       </c>
       <c r="C19">
-        <v>2.088976692562494</v>
+        <v>1.428012573426729</v>
       </c>
       <c r="D19">
         <v>1994</v>
@@ -729,13 +729,13 @@
         <v>1993</v>
       </c>
       <c r="C20">
-        <v>-1.215833328003513</v>
+        <v>-0.9010546343133807</v>
       </c>
       <c r="D20">
         <v>1994</v>
       </c>
       <c r="E20">
-        <v>2.073901557043811</v>
+        <v>1.483308540745609</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>1993</v>
       </c>
       <c r="C21">
-        <v>-1.214734352986269</v>
+        <v>-0.8720530424467632</v>
       </c>
       <c r="D21">
         <v>1994</v>
       </c>
       <c r="E21">
-        <v>1.668515919881242</v>
+        <v>1.166796790848745</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>1993</v>
       </c>
       <c r="C22">
-        <v>-1.105151118378667</v>
+        <v>-0.7919564768266385</v>
       </c>
       <c r="D22">
         <v>1994</v>
       </c>
       <c r="E22">
-        <v>1.162146262435582</v>
+        <v>0.8976572162586516</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>1994</v>
       </c>
       <c r="C23">
-        <v>0.5379966176019435</v>
+        <v>0.3076722249250707</v>
       </c>
       <c r="D23">
         <v>1995</v>
       </c>
       <c r="E23">
-        <v>0.2647299197532149</v>
+        <v>0.2647299197532371</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>1994</v>
       </c>
       <c r="C24">
-        <v>1.925996996358492</v>
+        <v>1.278852728916302</v>
       </c>
       <c r="D24">
         <v>1995</v>
       </c>
       <c r="E24">
-        <v>0.9788730637807941</v>
+        <v>1.211545622441634</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>1994</v>
       </c>
       <c r="C25">
-        <v>2.708787126488499</v>
+        <v>1.789907691359627</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25">
-        <v>1.362511602832805</v>
+        <v>1.825472298053787</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>1994</v>
       </c>
       <c r="C26">
-        <v>2.866096089773529</v>
+        <v>1.877689851450803</v>
       </c>
       <c r="D26">
         <v>1995</v>
       </c>
       <c r="E26">
-        <v>1.295274349906239</v>
+        <v>1.899791808163398</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,7 +848,7 @@
         <v>1995</v>
       </c>
       <c r="C27">
-        <v>1.773143439866853</v>
+        <v>2.418869769588627</v>
       </c>
       <c r="D27">
         <v>1996</v>
@@ -865,13 +865,13 @@
         <v>1995</v>
       </c>
       <c r="C28">
-        <v>1.768240960817691</v>
+        <v>2.40113223806655</v>
       </c>
       <c r="D28">
         <v>1996</v>
       </c>
       <c r="E28">
-        <v>1.245293817949067</v>
+        <v>1.221134982408678</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>1995</v>
       </c>
       <c r="C29">
-        <v>2.43753725453999</v>
+        <v>2.819539377737157</v>
       </c>
       <c r="D29">
         <v>1996</v>
       </c>
       <c r="E29">
-        <v>1.891581997212399</v>
+        <v>1.997534462825445</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>1995</v>
       </c>
       <c r="C30">
-        <v>2.255498870175066</v>
+        <v>2.705004599189187</v>
       </c>
       <c r="D30">
         <v>1996</v>
       </c>
       <c r="E30">
-        <v>2.253863008704204</v>
+        <v>2.111643953433728</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>1996</v>
       </c>
       <c r="C31">
-        <v>1.323124688210076</v>
+        <v>1.055081922325529</v>
       </c>
       <c r="D31">
         <v>1997</v>
       </c>
       <c r="E31">
-        <v>2.10102178252205</v>
+        <v>2.101021782522028</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>1996</v>
       </c>
       <c r="C32">
-        <v>0.3964686323729483</v>
+        <v>0.4170416928886977</v>
       </c>
       <c r="D32">
         <v>1997</v>
       </c>
       <c r="E32">
-        <v>1.737945171598465</v>
+        <v>1.535040327807513</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>1996</v>
       </c>
       <c r="C33">
-        <v>1.293330814984683</v>
+        <v>1.018604705437576</v>
       </c>
       <c r="D33">
         <v>1997</v>
       </c>
       <c r="E33">
-        <v>2.513340050456714</v>
+        <v>2.481224265467752</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>1996</v>
       </c>
       <c r="C34">
-        <v>1.440827265940592</v>
+        <v>1.110374544249249</v>
       </c>
       <c r="D34">
         <v>1997</v>
       </c>
       <c r="E34">
-        <v>2.507861161314984</v>
+        <v>2.576021643263426</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>1997</v>
       </c>
       <c r="C35">
-        <v>1.942093028090741</v>
+        <v>2.043489043912805</v>
       </c>
       <c r="D35">
         <v>1998</v>
       </c>
       <c r="E35">
-        <v>1.817693349720395</v>
+        <v>1.817693349720417</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>1997</v>
       </c>
       <c r="C36">
-        <v>1.911229176079332</v>
+        <v>2.025199397970145</v>
       </c>
       <c r="D36">
         <v>1998</v>
       </c>
       <c r="E36">
-        <v>1.765574213751031</v>
+        <v>1.766027057877517</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>1997</v>
       </c>
       <c r="C37">
-        <v>2.173417671615963</v>
+        <v>2.163083335451388</v>
       </c>
       <c r="D37">
         <v>1998</v>
       </c>
       <c r="E37">
-        <v>1.813336464278081</v>
+        <v>1.935100928371503</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>1997</v>
       </c>
       <c r="C38">
-        <v>2.388790018333853</v>
+        <v>2.267566233338814</v>
       </c>
       <c r="D38">
         <v>1998</v>
       </c>
       <c r="E38">
-        <v>2.172278666428507</v>
+        <v>2.348556921565126</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>1998</v>
       </c>
       <c r="C39">
-        <v>1.851626453647381</v>
+        <v>2.00862984482939</v>
       </c>
       <c r="D39">
         <v>1999</v>
@@ -1069,13 +1069,13 @@
         <v>1998</v>
       </c>
       <c r="C40">
-        <v>2.604301316925928</v>
+        <v>2.535130037318867</v>
       </c>
       <c r="D40">
         <v>1999</v>
       </c>
       <c r="E40">
-        <v>2.171222607713874</v>
+        <v>2.27519030414034</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>1998</v>
       </c>
       <c r="C41">
-        <v>2.758596188970497</v>
+        <v>2.646581680416427</v>
       </c>
       <c r="D41">
         <v>1999</v>
       </c>
       <c r="E41">
-        <v>2.26748870303155</v>
+        <v>2.356052362969074</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1103,13 +1103,13 @@
         <v>1998</v>
       </c>
       <c r="C42">
-        <v>2.868603576215123</v>
+        <v>2.688433258834588</v>
       </c>
       <c r="D42">
         <v>1999</v>
       </c>
       <c r="E42">
-        <v>2.649778901248667</v>
+        <v>2.730428819177333</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>1999</v>
       </c>
       <c r="C43">
-        <v>1.398561117300412</v>
+        <v>1.348289107438805</v>
       </c>
       <c r="D43">
         <v>2000</v>
       </c>
       <c r="E43">
-        <v>1.993316518581567</v>
+        <v>1.993316518581545</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>1999</v>
       </c>
       <c r="C44">
-        <v>1.158324173575842</v>
+        <v>1.085017960020163</v>
       </c>
       <c r="D44">
         <v>2000</v>
       </c>
       <c r="E44">
-        <v>1.58292366310937</v>
+        <v>1.594198396297974</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>1999</v>
       </c>
       <c r="C45">
-        <v>0.716951092929885</v>
+        <v>0.7322356691125353</v>
       </c>
       <c r="D45">
         <v>2000</v>
       </c>
       <c r="E45">
-        <v>1.183079735375214</v>
+        <v>1.15097235528796</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,13 +1171,13 @@
         <v>1999</v>
       </c>
       <c r="C46">
-        <v>1.199033587256038</v>
+        <v>1.014079695989589</v>
       </c>
       <c r="D46">
         <v>2000</v>
       </c>
       <c r="E46">
-        <v>1.878782575038151</v>
+        <v>1.901826179618205</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>2.042745307291383</v>
+        <v>2.194310407479816</v>
       </c>
       <c r="D47">
         <v>2001</v>
       </c>
       <c r="E47">
-        <v>1.70996454095349</v>
+        <v>1.709964540953468</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>2.318031336725856</v>
+        <v>2.388449447315399</v>
       </c>
       <c r="D48">
         <v>2001</v>
       </c>
       <c r="E48">
-        <v>1.845439021891959</v>
+        <v>1.896063224966515</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2000</v>
       </c>
       <c r="C49">
-        <v>3.039247994709449</v>
+        <v>2.899048932107218</v>
       </c>
       <c r="D49">
         <v>2001</v>
       </c>
       <c r="E49">
-        <v>2.286406977081445</v>
+        <v>2.504416658444697</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,13 +1239,13 @@
         <v>2000</v>
       </c>
       <c r="C50">
-        <v>3.180414548358224</v>
+        <v>3.013853578092252</v>
       </c>
       <c r="D50">
         <v>2001</v>
       </c>
       <c r="E50">
-        <v>2.141413002119941</v>
+        <v>2.435357021275819</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2001</v>
       </c>
       <c r="C51">
-        <v>1.947278343767089</v>
+        <v>2.061788155934763</v>
       </c>
       <c r="D51">
         <v>2002</v>
       </c>
       <c r="E51">
-        <v>2.166435958974877</v>
+        <v>2.166435958974855</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2001</v>
       </c>
       <c r="C52">
-        <v>1.789654024265319</v>
+        <v>1.940295589655605</v>
       </c>
       <c r="D52">
         <v>2002</v>
       </c>
       <c r="E52">
-        <v>2.196383146547265</v>
+        <v>2.152498180268503</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2001</v>
       </c>
       <c r="C53">
-        <v>1.286724192582089</v>
+        <v>1.515260426038667</v>
       </c>
       <c r="D53">
         <v>2002</v>
       </c>
       <c r="E53">
-        <v>2.201787609031691</v>
+        <v>1.998792769128133</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1307,13 +1307,13 @@
         <v>2001</v>
       </c>
       <c r="C54">
-        <v>0.8881197053071554</v>
+        <v>1.331295149770684</v>
       </c>
       <c r="D54">
         <v>2002</v>
       </c>
       <c r="E54">
-        <v>1.417229954124744</v>
+        <v>1.127665471558248</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1324,7 +1324,7 @@
         <v>2002</v>
       </c>
       <c r="C55">
-        <v>0.8821776025765171</v>
+        <v>0.4269939760819241</v>
       </c>
       <c r="D55">
         <v>2003</v>
@@ -1341,13 +1341,13 @@
         <v>2002</v>
       </c>
       <c r="C56">
-        <v>0.4300398704087716</v>
+        <v>0.1294783794713039</v>
       </c>
       <c r="D56">
         <v>2003</v>
       </c>
       <c r="E56">
-        <v>1.402332333946066</v>
+        <v>1.357330623126884</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1358,13 +1358,13 @@
         <v>2002</v>
       </c>
       <c r="C57">
-        <v>0.3498664944060481</v>
+        <v>0.1033117056784771</v>
       </c>
       <c r="D57">
         <v>2003</v>
       </c>
       <c r="E57">
-        <v>1.029333720985703</v>
+        <v>1.04066074725917</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1375,13 +1375,13 @@
         <v>2002</v>
       </c>
       <c r="C58">
-        <v>0.2503723745896691</v>
+        <v>0.04589006555719699</v>
       </c>
       <c r="D58">
         <v>2003</v>
       </c>
       <c r="E58">
-        <v>0.8114623372950991</v>
+        <v>0.8401596151991431</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1392,7 +1392,7 @@
         <v>2003</v>
       </c>
       <c r="C59">
-        <v>0.3955067620187158</v>
+        <v>0.4843276616282033</v>
       </c>
       <c r="D59">
         <v>2004</v>
@@ -1409,13 +1409,13 @@
         <v>2003</v>
       </c>
       <c r="C60">
-        <v>0.03511167739842502</v>
+        <v>0.2239492534813481</v>
       </c>
       <c r="D60">
         <v>2004</v>
       </c>
       <c r="E60">
-        <v>0.2562430727641285</v>
+        <v>0.1832633470655098</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1426,13 +1426,13 @@
         <v>2003</v>
       </c>
       <c r="C61">
-        <v>-0.1397977164021014</v>
+        <v>0.02334535098995616</v>
       </c>
       <c r="D61">
         <v>2004</v>
       </c>
       <c r="E61">
-        <v>0.2597232949187456</v>
+        <v>0.1469622967499529</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1443,13 +1443,13 @@
         <v>2003</v>
       </c>
       <c r="C62">
-        <v>-0.160597218777192</v>
+        <v>0.009546395482029624</v>
       </c>
       <c r="D62">
         <v>2004</v>
       </c>
       <c r="E62">
-        <v>0.06866307491661949</v>
+        <v>0.02245646656315881</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1460,7 +1460,7 @@
         <v>2004</v>
       </c>
       <c r="C63">
-        <v>0.2732723639328638</v>
+        <v>0.2545012074309794</v>
       </c>
       <c r="D63">
         <v>2005</v>
@@ -1477,13 +1477,13 @@
         <v>2004</v>
       </c>
       <c r="C64">
-        <v>0.8278362239799275</v>
+        <v>0.669497318959178</v>
       </c>
       <c r="D64">
         <v>2005</v>
       </c>
       <c r="E64">
-        <v>0.3390177388588489</v>
+        <v>0.4274836977099516</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1494,13 +1494,13 @@
         <v>2004</v>
       </c>
       <c r="C65">
-        <v>1.209701968723165</v>
+        <v>0.912401345573044</v>
       </c>
       <c r="D65">
         <v>2005</v>
       </c>
       <c r="E65">
-        <v>0.6449475752072997</v>
+        <v>0.8013693218445805</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1511,13 +1511,13 @@
         <v>2004</v>
       </c>
       <c r="C66">
-        <v>1.142421957279982</v>
+        <v>0.8709390141433015</v>
       </c>
       <c r="D66">
         <v>2005</v>
       </c>
       <c r="E66">
-        <v>0.6102547707981243</v>
+        <v>0.7407001102931465</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1528,7 +1528,7 @@
         <v>2005</v>
       </c>
       <c r="C67">
-        <v>0.1486677974333439</v>
+        <v>0.216597983326694</v>
       </c>
       <c r="D67">
         <v>2006</v>
@@ -1545,13 +1545,13 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1.225087189744944</v>
+        <v>0.9511721486624936</v>
       </c>
       <c r="D68">
         <v>2006</v>
       </c>
       <c r="E68">
-        <v>0.667546990777379</v>
+        <v>0.886066450790457</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1562,13 +1562,13 @@
         <v>2005</v>
       </c>
       <c r="C69">
-        <v>0.8013957675759853</v>
+        <v>0.6536862715143199</v>
       </c>
       <c r="D69">
         <v>2006</v>
       </c>
       <c r="E69">
-        <v>0.5267208981440064</v>
+        <v>0.6470310307926885</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1579,13 +1579,13 @@
         <v>2005</v>
       </c>
       <c r="C70">
-        <v>1.080932672358381</v>
+        <v>0.7652063367885598</v>
       </c>
       <c r="D70">
         <v>2006</v>
       </c>
       <c r="E70">
-        <v>1.236500865721557</v>
+        <v>1.397861196490657</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1596,13 +1596,13 @@
         <v>2006</v>
       </c>
       <c r="C71">
-        <v>1.130729136307695</v>
+        <v>1.224293415675737</v>
       </c>
       <c r="D71">
         <v>2007</v>
       </c>
       <c r="E71">
-        <v>1.176263924936682</v>
+        <v>1.176263924936705</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1613,13 +1613,13 @@
         <v>2006</v>
       </c>
       <c r="C72">
-        <v>1.25962308444949</v>
+        <v>1.350833417525776</v>
       </c>
       <c r="D72">
         <v>2007</v>
       </c>
       <c r="E72">
-        <v>1.234589750228898</v>
+        <v>1.249180524815863</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1630,13 +1630,13 @@
         <v>2006</v>
       </c>
       <c r="C73">
-        <v>2.152528147681876</v>
+        <v>2.009714038016819</v>
       </c>
       <c r="D73">
         <v>2007</v>
       </c>
       <c r="E73">
-        <v>1.519596551719538</v>
+        <v>1.743355179148787</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1647,13 +1647,13 @@
         <v>2006</v>
       </c>
       <c r="C74">
-        <v>2.573999374437519</v>
+        <v>2.267579219134386</v>
       </c>
       <c r="D74">
         <v>2007</v>
       </c>
       <c r="E74">
-        <v>1.889446339562029</v>
+        <v>2.220975586034668</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1664,7 +1664,7 @@
         <v>2007</v>
       </c>
       <c r="C75">
-        <v>2.677133763286932</v>
+        <v>3.078290297520692</v>
       </c>
       <c r="D75">
         <v>2008</v>
@@ -1681,13 +1681,13 @@
         <v>2007</v>
       </c>
       <c r="C76">
-        <v>2.913301031104365</v>
+        <v>3.305550968939119</v>
       </c>
       <c r="D76">
         <v>2008</v>
       </c>
       <c r="E76">
-        <v>2.470114202933038</v>
+        <v>2.444559947892744</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1698,13 +1698,13 @@
         <v>2007</v>
       </c>
       <c r="C77">
-        <v>2.665247278311167</v>
+        <v>3.132817707208702</v>
       </c>
       <c r="D77">
         <v>2008</v>
       </c>
       <c r="E77">
-        <v>2.448133414186437</v>
+        <v>2.331432390915711</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1715,13 +1715,13 @@
         <v>2007</v>
       </c>
       <c r="C78">
-        <v>2.701415685301534</v>
+        <v>3.146753122914103</v>
       </c>
       <c r="D78">
         <v>2008</v>
       </c>
       <c r="E78">
-        <v>2.58473653892517</v>
+        <v>2.456586080053058</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1732,7 +1732,7 @@
         <v>2008</v>
       </c>
       <c r="C79">
-        <v>2.212646691359077</v>
+        <v>1.995746158750311</v>
       </c>
       <c r="D79">
         <v>2009</v>
@@ -1749,13 +1749,13 @@
         <v>2008</v>
       </c>
       <c r="C80">
-        <v>3.255112626708478</v>
+        <v>2.741128804567849</v>
       </c>
       <c r="D80">
         <v>2009</v>
       </c>
       <c r="E80">
-        <v>3.010064440080429</v>
+        <v>3.207064487734335</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1766,13 +1766,13 @@
         <v>2008</v>
       </c>
       <c r="C81">
-        <v>2.037895645934684</v>
+        <v>1.942667347795668</v>
       </c>
       <c r="D81">
         <v>2009</v>
       </c>
       <c r="E81">
-        <v>2.352017657161687</v>
+        <v>2.213117880271587</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1783,13 +1783,13 @@
         <v>2008</v>
       </c>
       <c r="C82">
-        <v>1.582937641859083</v>
+        <v>1.769033835366818</v>
       </c>
       <c r="D82">
         <v>2009</v>
       </c>
       <c r="E82">
-        <v>1.386725702500713</v>
+        <v>1.086632508372576</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1800,7 +1800,7 @@
         <v>2009</v>
       </c>
       <c r="C83">
-        <v>-1.536890652925638</v>
+        <v>-2.118542710157001</v>
       </c>
       <c r="D83">
         <v>2010</v>
@@ -1817,13 +1817,13 @@
         <v>2009</v>
       </c>
       <c r="C84">
-        <v>-6.189442960727964</v>
+        <v>-5.478868953971427</v>
       </c>
       <c r="D84">
         <v>2010</v>
       </c>
       <c r="E84">
-        <v>-1.115179555546519</v>
+        <v>-2.015486574969738</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1834,13 +1834,13 @@
         <v>2009</v>
       </c>
       <c r="C85">
-        <v>-5.616379628600376</v>
+        <v>-5.084828127702867</v>
       </c>
       <c r="D85">
         <v>2010</v>
       </c>
       <c r="E85">
-        <v>-1.180492529607868</v>
+        <v>-1.833728168144311</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1851,13 +1851,13 @@
         <v>2009</v>
       </c>
       <c r="C86">
-        <v>-5.011264053911613</v>
+        <v>-4.774715709990263</v>
       </c>
       <c r="D86">
         <v>2010</v>
       </c>
       <c r="E86">
-        <v>-0.4521396749079032</v>
+        <v>-0.8529145826070339</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1868,13 +1868,13 @@
         <v>2010</v>
       </c>
       <c r="C87">
-        <v>-0.3062152616856717</v>
+        <v>-0.5999382180493007</v>
       </c>
       <c r="D87">
         <v>2011</v>
       </c>
       <c r="E87">
-        <v>-1.250042014667974</v>
+        <v>-1.250042014667962</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1885,13 +1885,13 @@
         <v>2010</v>
       </c>
       <c r="C88">
-        <v>0.227019714730492</v>
+        <v>-0.1094048593225039</v>
       </c>
       <c r="D88">
         <v>2011</v>
       </c>
       <c r="E88">
-        <v>-1.435416797561895</v>
+        <v>-1.306092631642397</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1902,13 +1902,13 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>2.728275269836344</v>
+        <v>1.602954073981988</v>
       </c>
       <c r="D89">
         <v>2011</v>
       </c>
       <c r="E89">
-        <v>0.06199991798563342</v>
+        <v>0.7803257319451973</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1919,13 +1919,13 @@
         <v>2010</v>
       </c>
       <c r="C90">
-        <v>3.340769212732742</v>
+        <v>1.95493704440024</v>
       </c>
       <c r="D90">
         <v>2011</v>
       </c>
       <c r="E90">
-        <v>0.3565121095773449</v>
+        <v>1.373265374526711</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>2011</v>
       </c>
       <c r="C91">
-        <v>1.007916994316016</v>
+        <v>2.063492214394214</v>
       </c>
       <c r="D91">
         <v>2012</v>
@@ -1953,13 +1953,13 @@
         <v>2011</v>
       </c>
       <c r="C92">
-        <v>2.901943278928609</v>
+        <v>3.381937564063731</v>
       </c>
       <c r="D92">
         <v>2012</v>
       </c>
       <c r="E92">
-        <v>0.5233902163345405</v>
+        <v>0.8627271536207459</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1970,13 +1970,13 @@
         <v>2011</v>
       </c>
       <c r="C93">
-        <v>2.923146471859561</v>
+        <v>3.34558936462801</v>
       </c>
       <c r="D93">
         <v>2012</v>
       </c>
       <c r="E93">
-        <v>1.175364803389889</v>
+        <v>1.388846149876399</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1987,13 +1987,13 @@
         <v>2011</v>
       </c>
       <c r="C94">
-        <v>3.266613546244024</v>
+        <v>3.478075069442799</v>
       </c>
       <c r="D94">
         <v>2012</v>
       </c>
       <c r="E94">
-        <v>2.857059467652245</v>
+        <v>2.807281147895924</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2004,7 +2004,7 @@
         <v>2012</v>
       </c>
       <c r="C95">
-        <v>2.057666725057561</v>
+        <v>1.826236139726367</v>
       </c>
       <c r="D95">
         <v>2013</v>
@@ -2021,13 +2021,13 @@
         <v>2012</v>
       </c>
       <c r="C96">
-        <v>1.790274425470972</v>
+        <v>1.637009187238481</v>
       </c>
       <c r="D96">
         <v>2013</v>
       </c>
       <c r="E96">
-        <v>2.82221886911711</v>
+        <v>2.774647569643585</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2038,13 +2038,13 @@
         <v>2012</v>
       </c>
       <c r="C97">
-        <v>1.410692758482046</v>
+        <v>1.346865733938807</v>
       </c>
       <c r="D97">
         <v>2013</v>
       </c>
       <c r="E97">
-        <v>2.665591140370926</v>
+        <v>2.512724058844373</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2055,13 +2055,13 @@
         <v>2012</v>
       </c>
       <c r="C98">
-        <v>1.171043385317327</v>
+        <v>1.232342134690434</v>
       </c>
       <c r="D98">
         <v>2013</v>
       </c>
       <c r="E98">
-        <v>2.293513746063258</v>
+        <v>2.058767060726563</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2072,7 +2072,7 @@
         <v>2013</v>
       </c>
       <c r="C99">
-        <v>0.6474439870007398</v>
+        <v>0.3873069896358494</v>
       </c>
       <c r="D99">
         <v>2014</v>
@@ -2089,13 +2089,13 @@
         <v>2013</v>
       </c>
       <c r="C100">
-        <v>0.1236862571897479</v>
+        <v>-0.03183845066089264</v>
       </c>
       <c r="D100">
         <v>2014</v>
       </c>
       <c r="E100">
-        <v>1.158834071395143</v>
+        <v>1.102201969172678</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2106,13 +2106,13 @@
         <v>2013</v>
       </c>
       <c r="C101">
-        <v>0.5151569210410489</v>
+        <v>0.253528806419423</v>
       </c>
       <c r="D101">
         <v>2014</v>
       </c>
       <c r="E101">
-        <v>1.384145559863281</v>
+        <v>1.404968633030523</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2123,13 +2123,13 @@
         <v>2013</v>
       </c>
       <c r="C102">
-        <v>0.486130238396254</v>
+        <v>0.2542811494408159</v>
       </c>
       <c r="D102">
         <v>2014</v>
       </c>
       <c r="E102">
-        <v>0.9879154814133928</v>
+        <v>1.100861823237564</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2140,7 +2140,7 @@
         <v>2014</v>
       </c>
       <c r="C103">
-        <v>1.201888851717747</v>
+        <v>1.332621000406675</v>
       </c>
       <c r="D103">
         <v>2015</v>
@@ -2157,13 +2157,13 @@
         <v>2014</v>
       </c>
       <c r="C104">
-        <v>1.857760673406283</v>
+        <v>1.810762846774527</v>
       </c>
       <c r="D104">
         <v>2015</v>
       </c>
       <c r="E104">
-        <v>1.070117761036204</v>
+        <v>1.207964354105195</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2174,13 +2174,13 @@
         <v>2014</v>
       </c>
       <c r="C105">
-        <v>1.365368300414271</v>
+        <v>1.436709756370314</v>
       </c>
       <c r="D105">
         <v>2015</v>
       </c>
       <c r="E105">
-        <v>0.6171963139659731</v>
+        <v>0.6556549079893559</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2191,13 +2191,13 @@
         <v>2014</v>
       </c>
       <c r="C106">
-        <v>1.462112914831626</v>
+        <v>1.519778766382096</v>
       </c>
       <c r="D106">
         <v>2015</v>
       </c>
       <c r="E106">
-        <v>0.5584147504514414</v>
+        <v>0.6176362615319508</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2208,13 +2208,13 @@
         <v>2015</v>
       </c>
       <c r="C107">
-        <v>1.105594811087096</v>
+        <v>1.24295348091521</v>
       </c>
       <c r="D107">
         <v>2016</v>
       </c>
       <c r="E107">
-        <v>0.9079692925777705</v>
+        <v>0.9079692925777927</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2225,13 +2225,13 @@
         <v>2015</v>
       </c>
       <c r="C108">
-        <v>1.180270576178954</v>
+        <v>1.292027346513414</v>
       </c>
       <c r="D108">
         <v>2016</v>
       </c>
       <c r="E108">
-        <v>0.9828438564608355</v>
+        <v>0.9897401519578963</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2242,13 +2242,13 @@
         <v>2015</v>
       </c>
       <c r="C109">
-        <v>1.491533106099707</v>
+        <v>1.480080839007014</v>
       </c>
       <c r="D109">
         <v>2016</v>
       </c>
       <c r="E109">
-        <v>1.459098717642338</v>
+        <v>1.476660450844114</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2259,13 +2259,13 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1.485174342633844</v>
+        <v>1.469441753880329</v>
       </c>
       <c r="D110">
         <v>2016</v>
       </c>
       <c r="E110">
-        <v>1.630702503967973</v>
+        <v>1.593307036690472</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2276,7 +2276,7 @@
         <v>2016</v>
       </c>
       <c r="C111">
-        <v>1.319551904765515</v>
+        <v>1.304999823458375</v>
       </c>
       <c r="D111">
         <v>2017</v>
@@ -2293,13 +2293,13 @@
         <v>2016</v>
       </c>
       <c r="C112">
-        <v>1.682788630021537</v>
+        <v>1.566699735746391</v>
       </c>
       <c r="D112">
         <v>2017</v>
       </c>
       <c r="E112">
-        <v>1.524079785503973</v>
+        <v>1.595944879287448</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2310,13 +2310,13 @@
         <v>2016</v>
       </c>
       <c r="C113">
-        <v>1.848490986746865</v>
+        <v>1.690815445118066</v>
       </c>
       <c r="D113">
         <v>2017</v>
       </c>
       <c r="E113">
-        <v>1.602982755478233</v>
+        <v>1.684535507219898</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2327,13 +2327,13 @@
         <v>2016</v>
       </c>
       <c r="C114">
-        <v>1.733072837491711</v>
+        <v>1.638203081492495</v>
       </c>
       <c r="D114">
         <v>2017</v>
       </c>
       <c r="E114">
-        <v>1.365567739091578</v>
+        <v>1.425381384581903</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2344,7 +2344,7 @@
         <v>2017</v>
       </c>
       <c r="C115">
-        <v>1.541297613216419</v>
+        <v>1.566606850307051</v>
       </c>
       <c r="D115">
         <v>2018</v>
@@ -2361,13 +2361,13 @@
         <v>2017</v>
       </c>
       <c r="C116">
-        <v>1.797357764064156</v>
+        <v>1.752318341645176</v>
       </c>
       <c r="D116">
         <v>2018</v>
       </c>
       <c r="E116">
-        <v>1.792179635996094</v>
+        <v>1.832607040765044</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2378,13 +2378,13 @@
         <v>2017</v>
       </c>
       <c r="C117">
-        <v>2.121446532996552</v>
+        <v>2.026449194162394</v>
       </c>
       <c r="D117">
         <v>2018</v>
       </c>
       <c r="E117">
-        <v>1.845788266820403</v>
+        <v>1.954455115209663</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2395,13 +2395,13 @@
         <v>2017</v>
       </c>
       <c r="C118">
-        <v>2.532746743612302</v>
+        <v>2.268697431234346</v>
       </c>
       <c r="D118">
         <v>2018</v>
       </c>
       <c r="E118">
-        <v>2.340401793803593</v>
+        <v>2.525738252590148</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2412,7 +2412,7 @@
         <v>2018</v>
       </c>
       <c r="C119">
-        <v>2.368475053427077</v>
+        <v>2.542674126958988</v>
       </c>
       <c r="D119">
         <v>2019</v>
@@ -2429,13 +2429,13 @@
         <v>2018</v>
       </c>
       <c r="C120">
-        <v>2.110288011358219</v>
+        <v>2.349173111882341</v>
       </c>
       <c r="D120">
         <v>2019</v>
       </c>
       <c r="E120">
-        <v>2.195414156958653</v>
+        <v>2.133017022807637</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2446,13 +2446,13 @@
         <v>2018</v>
       </c>
       <c r="C121">
-        <v>1.960952785906112</v>
+        <v>2.176287612988959</v>
       </c>
       <c r="D121">
         <v>2019</v>
       </c>
       <c r="E121">
-        <v>2.196920447396122</v>
+        <v>2.12507764041463</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2463,13 +2463,13 @@
         <v>2018</v>
       </c>
       <c r="C122">
-        <v>1.55060959846447</v>
+        <v>1.984425467899631</v>
       </c>
       <c r="D122">
         <v>2019</v>
       </c>
       <c r="E122">
-        <v>1.450339910498544</v>
+        <v>1.272991730262341</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2480,7 +2480,7 @@
         <v>2019</v>
       </c>
       <c r="C123">
-        <v>1.025120441442362</v>
+        <v>0.7861883705487349</v>
       </c>
       <c r="D123">
         <v>2020</v>
@@ -2497,13 +2497,13 @@
         <v>2019</v>
       </c>
       <c r="C124">
-        <v>1.090028298452594</v>
+        <v>0.8252516928923814</v>
       </c>
       <c r="D124">
         <v>2020</v>
       </c>
       <c r="E124">
-        <v>1.7038902012801</v>
+        <v>1.704160690624001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2514,13 +2514,13 @@
         <v>2019</v>
       </c>
       <c r="C125">
-        <v>0.8508096809331844</v>
+        <v>0.7141847898065823</v>
       </c>
       <c r="D125">
         <v>2020</v>
       </c>
       <c r="E125">
-        <v>1.593470246305739</v>
+        <v>1.45562662694132</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2531,13 +2531,13 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0.605733605626968</v>
+        <v>0.6066448776129052</v>
       </c>
       <c r="D126">
         <v>2020</v>
       </c>
       <c r="E126">
-        <v>0.9875621988306049</v>
+        <v>0.8323605077169782</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2548,7 +2548,7 @@
         <v>2020</v>
       </c>
       <c r="C127">
-        <v>0.7293129067031723</v>
+        <v>0.5755733225037973</v>
       </c>
       <c r="D127">
         <v>2021</v>
@@ -2565,13 +2565,13 @@
         <v>2020</v>
       </c>
       <c r="C128">
-        <v>-2.298160567755181</v>
+        <v>-1.611564731980897</v>
       </c>
       <c r="D128">
         <v>2021</v>
       </c>
       <c r="E128">
-        <v>-0.189504292099274</v>
+        <v>-0.741724804865096</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2582,13 +2582,13 @@
         <v>2020</v>
       </c>
       <c r="C129">
-        <v>-9.857376015145402</v>
+        <v>-6.400884962061093</v>
       </c>
       <c r="D129">
         <v>2021</v>
       </c>
       <c r="E129">
-        <v>-6.599947055204336</v>
+        <v>-8.955786180033066</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2599,13 +2599,13 @@
         <v>2020</v>
       </c>
       <c r="C130">
-        <v>-5.393157855150243</v>
+        <v>-4.243076347305386</v>
       </c>
       <c r="D130">
         <v>2021</v>
       </c>
       <c r="E130">
-        <v>0.6614402521704976</v>
+        <v>-0.2172115314521883</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2616,13 +2616,13 @@
         <v>2021</v>
       </c>
       <c r="C131">
-        <v>1.105707694009661</v>
+        <v>0.3870824575540333</v>
       </c>
       <c r="D131">
         <v>2022</v>
       </c>
       <c r="E131">
-        <v>-0.9715981035207211</v>
+        <v>-0.9715981035207322</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2633,13 +2633,13 @@
         <v>2021</v>
       </c>
       <c r="C132">
-        <v>-0.4097622583637439</v>
+        <v>-0.5453046728852495</v>
       </c>
       <c r="D132">
         <v>2022</v>
       </c>
       <c r="E132">
-        <v>-1.402182612722491</v>
+        <v>-1.767889269204159</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2650,13 +2650,13 @@
         <v>2021</v>
       </c>
       <c r="C133">
-        <v>1.258457620132392</v>
+        <v>0.6755179391138455</v>
       </c>
       <c r="D133">
         <v>2022</v>
       </c>
       <c r="E133">
-        <v>-0.1384117278926178</v>
+        <v>-0.167824745335865</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2667,13 +2667,13 @@
         <v>2021</v>
       </c>
       <c r="C134">
-        <v>2.658879889741361</v>
+        <v>1.438499295329754</v>
       </c>
       <c r="D134">
         <v>2022</v>
       </c>
       <c r="E134">
-        <v>1.246339038163491</v>
+        <v>1.725839624491665</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2684,7 +2684,7 @@
         <v>2022</v>
       </c>
       <c r="C135">
-        <v>1.144245914519737</v>
+        <v>1.573573217996316</v>
       </c>
       <c r="D135">
         <v>2023</v>
@@ -2701,13 +2701,13 @@
         <v>2022</v>
       </c>
       <c r="C136">
-        <v>1.337727334836236</v>
+        <v>1.726013280798222</v>
       </c>
       <c r="D136">
         <v>2023</v>
       </c>
       <c r="E136">
-        <v>0.0005402952784727688</v>
+        <v>0.05925426804285205</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2718,13 +2718,13 @@
         <v>2022</v>
       </c>
       <c r="C137">
-        <v>1.823891632469499</v>
+        <v>1.846014809206298</v>
       </c>
       <c r="D137">
         <v>2023</v>
       </c>
       <c r="E137">
-        <v>0.3663209760083941</v>
+        <v>0.5559835091856868</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2735,13 +2735,13 @@
         <v>2022</v>
       </c>
       <c r="C138">
-        <v>1.999826927380854</v>
+        <v>1.906593537051537</v>
       </c>
       <c r="D138">
         <v>2023</v>
       </c>
       <c r="E138">
-        <v>1.097222285099164</v>
+        <v>1.222362529774923</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2752,13 +2752,13 @@
         <v>2023</v>
       </c>
       <c r="C139">
-        <v>2.915043290829988</v>
+        <v>1.952915932811727</v>
       </c>
       <c r="D139">
         <v>2024</v>
       </c>
       <c r="E139">
-        <v>4.799414656194445</v>
+        <v>4.799414656194467</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2769,13 +2769,13 @@
         <v>2023</v>
       </c>
       <c r="C140">
-        <v>-0.1810712239929457</v>
+        <v>-0.06641493770841445</v>
       </c>
       <c r="D140">
         <v>2024</v>
       </c>
       <c r="E140">
-        <v>0.942795092185289</v>
+        <v>0.7991555368092929</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2786,13 +2786,13 @@
         <v>2023</v>
       </c>
       <c r="C141">
-        <v>-0.05718936159835319</v>
+        <v>0.04577949751736199</v>
       </c>
       <c r="D141">
         <v>2024</v>
       </c>
       <c r="E141">
-        <v>0.9034216300687126</v>
+        <v>0.764600327164322</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2803,13 +2803,13 @@
         <v>2023</v>
       </c>
       <c r="C142">
-        <v>-0.02454192713037262</v>
+        <v>0.08348019664223827</v>
       </c>
       <c r="D142">
         <v>2024</v>
       </c>
       <c r="E142">
-        <v>1.192480395252127</v>
+        <v>0.9116426337375527</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2820,7 +2820,7 @@
         <v>2024</v>
       </c>
       <c r="C143">
-        <v>0.1207727564398242</v>
+        <v>-0.05456051309935539</v>
       </c>
       <c r="D143">
         <v>2025</v>
@@ -2837,13 +2837,13 @@
         <v>2024</v>
       </c>
       <c r="C144">
-        <v>0.02136143473541186</v>
+        <v>-0.1397017661237232</v>
       </c>
       <c r="D144">
         <v>2025</v>
       </c>
       <c r="E144">
-        <v>0.3538309530010331</v>
+        <v>0.385156833908451</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2854,13 +2854,13 @@
         <v>2024</v>
       </c>
       <c r="C145">
-        <v>-0.0268205859629056</v>
+        <v>-0.125722551297347</v>
       </c>
       <c r="D145">
         <v>2025</v>
       </c>
       <c r="E145">
-        <v>0.06386240425391154</v>
+        <v>0.09370726871009705</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2871,13 +2871,13 @@
         <v>2024</v>
       </c>
       <c r="C146">
-        <v>-0.1570176223593789</v>
+        <v>-0.214505326882275</v>
       </c>
       <c r="D146">
         <v>2025</v>
       </c>
       <c r="E146">
-        <v>-0.04544624979142542</v>
+        <v>-0.02742999272021818</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2888,7 +2888,7 @@
         <v>2025</v>
       </c>
       <c r="C147">
-        <v>-0.2375488353933419</v>
+        <v>-0.2494812340410268</v>
       </c>
       <c r="D147">
         <v>2026</v>
@@ -2905,13 +2905,13 @@
         <v>2025</v>
       </c>
       <c r="C148">
-        <v>0.1723638860727128</v>
+        <v>0.06464796496492564</v>
       </c>
       <c r="D148">
         <v>2026</v>
       </c>
       <c r="E148">
-        <v>-0.1770403288700262</v>
+        <v>-0.06351196001971315</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2922,13 +2922,13 @@
         <v>2025</v>
       </c>
       <c r="C149">
-        <v>0.1076276004424725</v>
+        <v>0.10766001360758</v>
       </c>
       <c r="D149">
         <v>2026</v>
       </c>
       <c r="E149">
-        <v>-0.4281444542486912</v>
+        <v>-0.3731768087865239</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2939,13 +2939,13 @@
         <v>2025</v>
       </c>
       <c r="C150">
-        <v>0.2194017515915414</v>
+        <v>0.1651547428133782</v>
       </c>
       <c r="D150">
         <v>2026</v>
       </c>
       <c r="E150">
-        <v>-0.1883185981439661</v>
+        <v>-0.1331392688890709</v>
       </c>
     </row>
   </sheetData>
